--- a/biology/Biologie cellulaire et moléculaire/Inositol_phosphate/Inositol_phosphate.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Inositol_phosphate/Inositol_phosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, un inositol phosphate est un organophosphate d'inositol. Ces biomolécules jouent un rôle important dans un grand nombre de processus cellulaires tels que la croissance, la différenciation, la migration, l'endocytose ou encore l'apoptose. Les inositol phosphates sont :
 l'inositol trisphosphate IP3,
